--- a/Client/Assets/EXCEL/Story.xlsx
+++ b/Client/Assets/EXCEL/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="4230" windowWidth="20730" windowHeight="8115"/>
+    <workbookView xWindow="-2595" yWindow="2310" windowWidth="20730" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上路孤獨一生，Jungle打野殺畜牲，中路普渡眾生，下路男生配女生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>……你現在當作我們練AP、JG跟TOP的都王八蛋就對了啦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
  2. 是否要有對話角色圖待議
  3. 考慮加入 formatted string
  4. 是否加入選項, 待議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -517,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="84" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
